--- a/biology/Botanique/Filago_(genre)/Filago_(genre).xlsx
+++ b/biology/Botanique/Filago_(genre)/Filago_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filago est un genre de plante à fleurs de la famille des Asteraceae.
 Ce sont des plantes herbacées.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 novembre 2018) :
 Filago aegaea Wagenitz
 Filago anatolica (Boiss. &amp; Heldr.) Chrtek &amp; Holub
 Filago argentea (Pomel) Chrtek &amp; Holub
@@ -554,7 +568,7 @@
 Filago spathulata C. Presl
 Filago tyrrhenica Chrtek &amp; Holub
 Filago vulgaris Lam.
-Selon Catalogue of Life                                   (7 novembre 2018)[3] :
+Selon Catalogue of Life                                   (7 novembre 2018) :
 Filago aberrans G. Wagenitz
 Filago abyssinica Sch. Bip. ex A. Rich.
 Filago aegaea
@@ -601,12 +615,12 @@
 Filago tyrrhenica Chrtek &amp; Holub
 Filago vulgaris Lam.
 Filago wagenitziana Bergmeier
-Selon GRIN            (7 novembre 2018)[4] :
+Selon GRIN            (7 novembre 2018) :
 Filago arvensis L.
-Selon ITIS      (7 novembre 2018)[5] :
+Selon ITIS      (7 novembre 2018) :
 Filago pyramidata L.
 Filago vulgaris Lam.
-Selon NCBI  (7 novembre 2018)[6] :
+Selon NCBI  (7 novembre 2018) :
 Filago aegaea Wagenitz
 Filago anatolica (Boiss. &amp; Heldr.) Chrtek &amp; Holub
 Filago arenaria (Smoljan.) Chrtek &amp; Holub
@@ -644,7 +658,7 @@
 Filago tyrrhenica Chrtek &amp; Holub
 Filago vulgaris Lam.
 Filago wagenitziana Bergmeier
-Selon The Plant List            (7 novembre 2018)[7] :
+Selon The Plant List            (7 novembre 2018) :
 Filago abyssinica Sch.Bip. ex A.Rich.
 Filago aegaea Wagenitz
 Filago anatolica (Boiss. &amp; Heldr.) Chrtek &amp; Holub
@@ -701,7 +715,7 @@
 Filago sahariensis Chrtek &amp; Holub
 Filago texana Scheele
 Filago tyrrhenica Chrtek &amp; Holub
-Selon Tropicos                                           (7 novembre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Filago aberrans Wagenitz
 Filago abyssinica Sch. Bip.
 Filago acaulis Krock.
